--- a/프로젝트 기획 및 설계 자료/사용자 요구사항.xlsx
+++ b/프로젝트 기획 및 설계 자료/사용자 요구사항.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmd53\Documents\GitHub\Kalculator\프로젝트 기획 및 설계 자료\4~6주차\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmd53\Documents\GitHub\Kalculator\프로젝트 기획 및 설계 자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BB709A-A892-4401-B7B5-D9DA45E43D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E262FA29-0DF8-490C-9B93-F7DEB451027C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E9E4507E-0CAA-427E-8764-07E9FCE69C8B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,12 +145,6 @@
     <t>배틀 그룹 생성</t>
   </si>
   <si>
-    <t>신청자 수락 및 초대</t>
-  </si>
-  <si>
-    <t>배틀 성과와 포인트 획득</t>
-  </si>
-  <si>
     <t>사용자는 하루에 섭취한 음식의 정보 (음식 이름, 칼로리, 영양성분, 수량)를 기록할 수 있습니다.</t>
   </si>
   <si>
@@ -181,15 +175,6 @@
     <t>사용자는 달린 경로를 확인하고 저장하기 버튼을 통해 저장할 수 있으며, 달린 거리, 소모 칼로리, 달린 시간을 확인할 수 있습니다.</t>
   </si>
   <si>
-    <t>사용자는 배틀 목적, 배틀 기간, 참여 인원수를 설정하여 배틀 그룹을 만들 수 있습니다.</t>
-  </si>
-  <si>
-    <t>그룹장은 24시간 동안 신청자를 받을 수 있으며, 그룹에 초대할 수 있습니다.</t>
-  </si>
-  <si>
-    <t>사용자는 하루 성과에 따라 포인트를 획득하고, 그룹 배틀에 참여한 사용자들은 포인트에 따라 순위를 확인할 수 있습니다.</t>
-  </si>
-  <si>
     <t>달리기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -203,6 +188,38 @@
   </si>
   <si>
     <t>사용자는 나이, 성별, 체중,키,활동량(활동 적음, 일반적, 활동 많음), 이용목적(다이어트,증량), 목표체중,식단 모드(일반식단, 운동식단, 키토식단)를 입력하여 개인 프로필을 생성할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자는 가입하지 않은 그룹에 가입할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">배틀 성과 및 랭킹 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자는 그룹 이름, 모집 제목, 모집 글, 배틀 목적(다이어트, 증량, 달리기), 배틀 기간, 배틀 목표(kg, km), 참여 인원수를 설정하여 배틀 그룹을 만들 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자는 배틀 기간동안 배틀 목표와 비교하여 달성율을 확인하고 달성율에 따른 가입자들의 랭킹을 확인할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식단 추천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>챗봇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자는 추천받고 싶은 식단(아침, 점심, 저녁) 추천받기 버튼을 통해 식단 추천을 받을 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,9 +476,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -499,7 +516,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -605,7 +622,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -747,7 +764,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -755,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6313C18-6597-49B6-94F3-DA3BE249037F}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -784,7 +801,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="4">
-        <f t="shared" ref="A2:A22" si="0">ROW()-1</f>
+        <f t="shared" ref="A2:B23" si="0">ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -794,7 +811,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -889,7 +906,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -904,7 +921,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -917,7 +934,7 @@
         <v>22</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -930,7 +947,7 @@
         <v>23</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -945,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
@@ -958,7 +975,7 @@
         <v>27</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
@@ -973,7 +990,7 @@
         <v>28</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
@@ -986,7 +1003,7 @@
         <v>29</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -999,7 +1016,7 @@
         <v>30</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -1008,13 +1025,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -1027,7 +1044,7 @@
         <v>32</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -1036,13 +1053,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
@@ -1052,10 +1069,10 @@
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="5" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
@@ -1065,10 +1082,25 @@
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="10" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>48</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="4">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
